--- a/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2309,7 +2309,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2012 (tasa de respuesta: 97,24%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2012 (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2309,7 +2309,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 55 años según si los anticonceptivos consumidos fueron recetados por el médico en 2016 (tasa de respuesta: 98,68%)</t>
+          <t>Mujeres menores de 55 años con anticonceptivos recetados en 2016 (tasa de respuesta: 98,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Provincia-trans_orig.xlsx
@@ -623,7 +623,7 @@
         <v>18726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14240</v>
+        <v>13330</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>20872</v>
@@ -632,7 +632,7 @@
         <v>0.8971649313650062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6822731434464734</v>
+        <v>0.6386362728942716</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6632</v>
+        <v>7542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1028350686349938</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3177268565535263</v>
+        <v>0.3613637271057284</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>27157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21334</v>
+        <v>22064</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30233</v>
+        <v>30195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8203071876274666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6444062112301062</v>
+        <v>0.6664709760842376</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9132053503979966</v>
+        <v>0.9120637283383358</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>5949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2873</v>
+        <v>2911</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11772</v>
+        <v>11042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1796928123725335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0867946496020035</v>
+        <v>0.08793627166166422</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3555937887698938</v>
+        <v>0.3335290239157624</v>
       </c>
     </row>
     <row r="9">
@@ -880,7 +880,7 @@
         <v>25621</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22409</v>
+        <v>21324</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>26594</v>
@@ -889,7 +889,7 @@
         <v>0.9633950308243869</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8426439715539398</v>
+        <v>0.8018287200089769</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4185</v>
+        <v>5270</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03660496917561307</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.15735602844606</v>
+        <v>0.198171279991023</v>
       </c>
     </row>
     <row r="15">
@@ -1046,7 +1046,7 @@
         <v>23779</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19656</v>
+        <v>19613</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>24800</v>
@@ -1055,7 +1055,7 @@
         <v>0.9588199464954865</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7925787073552768</v>
+        <v>0.7908638194127194</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5144</v>
+        <v>5187</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04118005350451344</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2074212926447233</v>
+        <v>0.2091361805872809</v>
       </c>
     </row>
     <row r="21">
@@ -1137,7 +1137,7 @@
         <v>31812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27836</v>
+        <v>28690</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>32792</v>
@@ -1146,7 +1146,7 @@
         <v>0.9701129123998442</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8488559774662019</v>
+        <v>0.8749009623359307</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4956</v>
+        <v>4102</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02988708760015584</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1511440225337984</v>
+        <v>0.1250990376640687</v>
       </c>
     </row>
     <row r="24">
@@ -1228,19 +1228,19 @@
         <v>39619</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33645</v>
+        <v>33642</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43556</v>
+        <v>43641</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.84998294630265</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7218090034353852</v>
+        <v>0.7217478991698995</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9344425069651257</v>
+        <v>0.9362576552588711</v>
       </c>
     </row>
     <row r="26">
@@ -1257,19 +1257,19 @@
         <v>6993</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3056</v>
+        <v>2971</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12967</v>
+        <v>12970</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.15001705369735</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06555749303487439</v>
+        <v>0.06374234474112887</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2781909965646147</v>
+        <v>0.2782521008301006</v>
       </c>
     </row>
     <row r="27">
@@ -1319,19 +1319,19 @@
         <v>193115</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>184085</v>
+        <v>183932</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>200163</v>
+        <v>200013</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9144670599223602</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8717059762207751</v>
+        <v>0.870982431895225</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9478385631103613</v>
+        <v>0.9471301261646864</v>
       </c>
     </row>
     <row r="29">
@@ -1348,19 +1348,19 @@
         <v>18063</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11015</v>
+        <v>11165</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27093</v>
+        <v>27246</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08553294007763979</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05216143688963878</v>
+        <v>0.0528698738353136</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1282940237792254</v>
+        <v>0.129017568104775</v>
       </c>
     </row>
     <row r="30">
@@ -1607,7 +1607,7 @@
         <v>25664</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22431</v>
+        <v>21534</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>26656</v>
@@ -1616,7 +1616,7 @@
         <v>0.9627853284661244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8415174984391396</v>
+        <v>0.8078602516592434</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4225</v>
+        <v>5122</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03721467153387557</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1584825015608606</v>
+        <v>0.1921397483407566</v>
       </c>
     </row>
     <row r="9">
@@ -1773,7 +1773,7 @@
         <v>22275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19193</v>
+        <v>18541</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>23174</v>
@@ -1782,7 +1782,7 @@
         <v>0.9612004338915904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8282263868911929</v>
+        <v>0.8000928816316792</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3981</v>
+        <v>4633</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03879956610840966</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1717736131088072</v>
+        <v>0.1999071183683215</v>
       </c>
     </row>
     <row r="15">
@@ -2089,7 +2089,7 @@
         <v>45776</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41602</v>
+        <v>41538</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>47809</v>
@@ -2098,7 +2098,7 @@
         <v>0.9574733414063179</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8701654341638801</v>
+        <v>0.8688322193789592</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6207</v>
+        <v>6271</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04252665859368213</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1298345658361196</v>
+        <v>0.1311677806210409</v>
       </c>
     </row>
     <row r="27">
@@ -2180,19 +2180,19 @@
         <v>221064</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>215076</v>
+        <v>214989</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>223966</v>
+        <v>223999</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9825576696208269</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9559464742668228</v>
+        <v>0.9555584397089931</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9954583435415187</v>
+        <v>0.9956036477112806</v>
       </c>
     </row>
     <row r="29">
@@ -2209,19 +2209,19 @@
         <v>3924</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9912</v>
+        <v>9999</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01744233037917304</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004541656458481174</v>
+        <v>0.004396352288719373</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04405352573317721</v>
+        <v>0.04444156029100683</v>
       </c>
     </row>
     <row r="30">
@@ -2393,7 +2393,7 @@
         <v>3507</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>894</v>
+        <v>1627</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5253</v>
@@ -2402,7 +2402,7 @@
         <v>0.667713337251255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1702515801624231</v>
+        <v>0.3097500369403783</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4359</v>
+        <v>3626</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.332286662748745</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8297484198375769</v>
+        <v>0.6902499630596338</v>
       </c>
     </row>
     <row r="6">
@@ -2709,7 +2709,7 @@
         <v>11504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8057</v>
+        <v>8709</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>12331</v>
@@ -2718,7 +2718,7 @@
         <v>0.9329540899386541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6534284127569864</v>
+        <v>0.7062453641423472</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4274</v>
+        <v>3622</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06704591006134591</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3465715872430138</v>
+        <v>0.2937546358576524</v>
       </c>
     </row>
     <row r="18">
@@ -2800,7 +2800,7 @@
         <v>5598</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2853</v>
+        <v>2842</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>6471</v>
@@ -2809,7 +2809,7 @@
         <v>0.8651267199602041</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4408338695699895</v>
+        <v>0.439248574003991</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3618</v>
+        <v>3629</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1348732800397959</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5591661304300106</v>
+        <v>0.560751425996009</v>
       </c>
     </row>
     <row r="21">
@@ -2891,7 +2891,7 @@
         <v>34311</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30199</v>
+        <v>30192</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>36239</v>
@@ -2900,7 +2900,7 @@
         <v>0.9467959968462951</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8333320376885204</v>
+        <v>0.8331260360178644</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6040</v>
+        <v>6047</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05320400315370493</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1666679623114797</v>
+        <v>0.1668739639821356</v>
       </c>
     </row>
     <row r="24">
@@ -2982,7 +2982,7 @@
         <v>37545</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33999</v>
+        <v>32973</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>38526</v>
@@ -2991,7 +2991,7 @@
         <v>0.9745359417997952</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8825030354128123</v>
+        <v>0.8558552773874462</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4527</v>
+        <v>5553</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02546405820020476</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1174969645871858</v>
+        <v>0.1441447226125509</v>
       </c>
     </row>
     <row r="27">
@@ -3073,19 +3073,19 @@
         <v>140279</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>134566</v>
+        <v>133795</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>143982</v>
+        <v>143902</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9566675311262756</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9177086657736255</v>
+        <v>0.9124452583105171</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9819180548731533</v>
+        <v>0.9813779018436163</v>
       </c>
     </row>
     <row r="29">
@@ -3102,19 +3102,19 @@
         <v>6354</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2651</v>
+        <v>2731</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12067</v>
+        <v>12838</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04333246887372447</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01808194512684678</v>
+        <v>0.01862209815638373</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08229133422637454</v>
+        <v>0.08755474168948214</v>
       </c>
     </row>
     <row r="30">
